--- a/Riesgo/DataTarea_Exogenas_Riesgo4.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D88CC7-4E51-4277-ADDB-03E7C645E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0659DC2D-9AF3-4C82-920F-BDB86971F2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2670" windowWidth="21540" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3135" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -584,13 +584,13 @@
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>2.6430951174366473</v>
+        <v>3.75</v>
       </c>
       <c r="C3" s="4">
-        <v>-2.824276733848583</v>
+        <v>-4.3</v>
       </c>
       <c r="D3" s="15">
-        <v>-0.32631907029203899</v>
+        <v>-0.67631907029203897</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="14"/>
@@ -601,13 +601,13 @@
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>2.5753901834923272</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>-2.4001121761291659</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D4" s="15">
-        <v>-0.25067921100116608</v>
+        <v>-0.60067921100116606</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="14"/>
@@ -618,13 +618,13 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>2.5180305634547002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5" s="4">
-        <v>-2.0223598132153691</v>
+        <v>-4.5</v>
       </c>
       <c r="D5" s="15">
-        <v>-0.22033249945366787</v>
+        <v>-0.57033249945366782</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="14"/>
@@ -635,13 +635,13 @@
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>2.4694354933588212</v>
+        <v>4.2</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.7139905772327138</v>
+        <v>-4.5</v>
       </c>
       <c r="D6" s="15">
-        <v>-0.20815739878081158</v>
+        <v>-0.5581573987808115</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="14"/>
@@ -652,13 +652,13 @@
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>2.4282657499735931</v>
+        <v>4.3</v>
       </c>
       <c r="C7" s="4">
-        <v>-1.4751196862998024</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D7" s="15">
-        <v>-0.20327274839086162</v>
+        <v>-0.5532727483908616</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="14"/>
@@ -669,13 +669,13 @@
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>2.3933867433776279</v>
+        <v>4.3</v>
       </c>
       <c r="C8" s="4">
-        <v>-1.2966693080036298</v>
+        <v>-4.3</v>
       </c>
       <c r="D8" s="15">
-        <v>-0.2013130266544137</v>
+        <v>-0.55131302665441373</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="14"/>
@@ -686,13 +686,13 @@
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>2.363837248989527</v>
+        <v>4.3</v>
       </c>
       <c r="C9" s="4">
-        <v>-1.1670368548440262</v>
+        <v>-4.25</v>
       </c>
       <c r="D9" s="15">
-        <v>-0.20052678629375079</v>
+        <v>-0.55052678629375074</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="14"/>
@@ -703,13 +703,13 @@
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>2.3388029173439269</v>
+        <v>4.25</v>
       </c>
       <c r="C10" s="4">
-        <v>-1.0759105395835344</v>
+        <v>-4</v>
       </c>
       <c r="D10" s="15">
-        <v>-0.20021134666105281</v>
+        <v>-0.55021134666105276</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="14"/>
